--- a/biology/Botanique/Eranthis_hyemalis/Eranthis_hyemalis.xlsx
+++ b/biology/Botanique/Eranthis_hyemalis/Eranthis_hyemalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eranthe d'hiver
 Eranthis hyemalis (ou hiemalis), appelé  hellébore d'hiver ou « éranthe d'hiver », est une espèce de plantes à fleurs herbacée de la famille des Ranunculaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique de 1885.
@@ -553,10 +567,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans le Sud-Est de l'Europe occidentale (Italie) et en Asie mineure (Turquie). Elle peut être naturalisée ailleurs, en France notamment, en Belgique (où elle est très localisée)[1].
-Eranthis hyemalis pousse aux abords du château du Landsberg en Alsace où elle fleurit en tapis tous les ans entre janvier et mars[2],[3]. Certains auteurs rangent l'espèce dans le flore castrale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans le Sud-Est de l'Europe occidentale (Italie) et en Asie mineure (Turquie). Elle peut être naturalisée ailleurs, en France notamment, en Belgique (où elle est très localisée).
+Eranthis hyemalis pousse aux abords du château du Landsberg en Alsace où elle fleurit en tapis tous les ans entre janvier et mars,. Certains auteurs rangent l'espèce dans le flore castrale.
 </t>
         </is>
       </c>
